--- a/ePos_Known_Issues.xlsx
+++ b/ePos_Known_Issues.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="8565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="8565" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
     <sheet name="Doubt" sheetId="2" r:id="rId2"/>
+    <sheet name="Features" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,15 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>a. Hide the column 'Staff Id' when staff is logged-in</t>
   </si>
   <si>
     <t>b. Show staff NAME, for Admin login ( Join columns and get the staff name )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13. Pure Bootstrap </t>
   </si>
   <si>
     <t>Issues</t>
@@ -72,10 +70,6 @@
     <t>Persisit details in the cart.jsp till payment page.</t>
   </si>
   <si>
-    <t>Complete one entire flow of payment. 
--  Save each cartline to DB by getting the values at runtime.</t>
-  </si>
-  <si>
     <t>Add items to cart. 
 Increment the count. 
 Decrement is possible after 1.</t>
@@ -85,6 +79,50 @@
   </si>
   <si>
     <t>&lt;%@include file="payment.jsp"%&gt; - Is it right?</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Inprogress</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Settings feature\UI</t>
+  </si>
+  <si>
+    <t>Reporting Feature\UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pure Bootstrap </t>
+  </si>
+  <si>
+    <t>Complete one entire flow of payment. 
+- Save each cartline to DB by getting the values at runtime.
+- Hold the orders page till payemt is finished. Should be able to go back to items page even from the payment page.</t>
+  </si>
+  <si>
+    <t>Fix the login issue. First page displayed should be login.</t>
+  </si>
+  <si>
+    <t>Integrating with AWS</t>
+  </si>
+  <si>
+    <t>Printing receipt</t>
+  </si>
+  <si>
+    <t>Receive scanner input + runtime search</t>
   </si>
 </sst>
 </file>
@@ -116,7 +154,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -133,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -147,10 +185,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -461,189 +500,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
     <col min="2" max="2" width="145.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <f t="shared" ref="A4:A25" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <f>A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <f t="shared" ref="A5:A22" si="0">A4+1</f>
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -667,17 +778,92 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
